--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_backtest/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA5D24-5B7C-FB43-A674-AE0AF7FCB52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289C800-BEC4-014A-A114-68AB6D18EFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy" sheetId="2" r:id="rId1"/>
@@ -35,15 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
-  <si>
-    <t>fund_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fund_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>index_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE32B08-BB0A-BB4A-B85C-3127BCD313D2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
+    <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -679,15 +671,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.6</v>
@@ -695,7 +687,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.4</v>
@@ -703,7 +695,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -717,385 +709,385 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28861DC9-D290-4844-9FD6-98C432D34C07}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1103,16 +1095,16 @@
         <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
@@ -1120,13 +1112,7 @@
         <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289C800-BEC4-014A-A114-68AB6D18EFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF1BFE5-3B39-6347-B51E-8E7866840FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>index_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,30 @@
   </si>
   <si>
     <t>2009-09-30</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>000852</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>2014-10-17</t>
+  </si>
+  <si>
+    <t>2004-01-02</t>
+  </si>
+  <si>
+    <t>000906</t>
+  </si>
+  <si>
+    <t>中证800</t>
   </si>
 </sst>
 </file>
@@ -709,10 +733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28861DC9-D290-4844-9FD6-98C432D34C07}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A24" sqref="A24:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,6 +1139,57 @@
         <v>43</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF1BFE5-3B39-6347-B51E-8E7866840FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D19CE98-3519-DE4C-8530-355913FFC189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>index_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>中证800</t>
+  </si>
+  <si>
+    <t>000688</t>
+  </si>
+  <si>
+    <t>科创50</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
   </si>
 </sst>
 </file>
@@ -733,10 +742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28861DC9-D290-4844-9FD6-98C432D34C07}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="178" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,6 +1199,23 @@
         <v>43</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D19CE98-3519-DE4C-8530-355913FFC189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F9341C-EC44-E542-9CD0-AFF0AAE3588A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>index_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>is_holding</t>
   </si>
 </sst>
 </file>
@@ -742,10 +748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28861DC9-D290-4844-9FD6-98C432D34C07}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="178" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +763,7 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,8 +779,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -790,8 +799,11 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -807,8 +819,11 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -824,8 +839,11 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -842,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -858,8 +876,11 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -875,8 +896,11 @@
       <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -893,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -910,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -927,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -943,8 +967,11 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -961,7 +988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -978,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -994,8 +1021,11 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1011,8 +1041,11 @@
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1028,8 +1061,11 @@
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1045,8 +1081,11 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1062,8 +1101,11 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1080,7 +1122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1114,7 +1156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1131,7 +1173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1148,7 +1190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -1164,8 +1206,11 @@
       <c r="E24" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -1182,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -1199,7 +1244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>

--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F9341C-EC44-E542-9CD0-AFF0AAE3588A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A3A40-44F0-C842-8878-1535AB452F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>index_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>is_holding</t>
+  </si>
+  <si>
+    <t>strategy</t>
   </si>
 </sst>
 </file>
@@ -698,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE32B08-BB0A-BB4A-B85C-3127BCD313D2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28861DC9-D290-4844-9FD6-98C432D34C07}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,7 +780,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>83</v>

--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A3A40-44F0-C842-8878-1535AB452F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36FE2E9-1448-2048-8D0F-F4101CE2A262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21160" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy" sheetId="2" r:id="rId1"/>
@@ -701,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE32B08-BB0A-BB4A-B85C-3127BCD313D2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
+    <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28861DC9-D290-4844-9FD6-98C432D34C07}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36FE2E9-1448-2048-8D0F-F4101CE2A262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1254A58-2EB8-CE43-AB7F-823F83495790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21160" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1254A58-2EB8-CE43-AB7F-823F83495790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08400799-063F-C446-9B92-2898EBA09233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21160" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_params/bt_params.xlsx
+++ b/01_params/bt_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08400799-063F-C446-9B92-2898EBA09233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30265AAF-E407-574E-9CC0-534406FAE108}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21160" activeTab="1" xr2:uid="{C6A3F68C-BBD5-C94B-93D9-C8FD46997BDD}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
